--- a/Gimp Maptile Plugin/Locations/Holdings.xlsx
+++ b/Gimp Maptile Plugin/Locations/Holdings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Workspace\Merisyl\Gimp Maptile Plugin\Locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A719F4-BF33-4FB6-8560-1F5C1EDF8E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D6C7F2-B2B4-44E7-9C94-E2FB45545074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1483853-A279-4A63-B403-00191E9173B3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A1483853-A279-4A63-B403-00191E9173B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
-    <t>Abaddon Holding</t>
-  </si>
-  <si>
     <t>Bloodfire</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Charisma and Constitution</t>
   </si>
   <si>
-    <t>Brandywine Holding</t>
-  </si>
-  <si>
     <t>Delvers</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>Strength and Wisdom</t>
   </si>
   <si>
-    <t>Fargic Hill Holding</t>
-  </si>
-  <si>
     <t>Circlet of Force</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>Intelligence and Charisma</t>
   </si>
   <si>
-    <t>Forge Fires Holding</t>
-  </si>
-  <si>
     <t>Tabrikell</t>
   </si>
   <si>
@@ -110,9 +98,6 @@
     <t>Constitution, Intelligence</t>
   </si>
   <si>
-    <t>Iron Bolts Holding</t>
-  </si>
-  <si>
     <t>Red-Eye Raiders</t>
   </si>
   <si>
@@ -128,9 +113,6 @@
     <t>Strength, Constitution</t>
   </si>
   <si>
-    <t>North Canal Holding</t>
-  </si>
-  <si>
     <t>Canal Rats</t>
   </si>
   <si>
@@ -146,9 +128,6 @@
     <t>Dexterity, Intelligence</t>
   </si>
   <si>
-    <t>Northbridge Holding</t>
-  </si>
-  <si>
     <t>Mason’s Guild</t>
   </si>
   <si>
@@ -164,9 +143,6 @@
     <t>Constitution and Wisdom</t>
   </si>
   <si>
-    <t>Rivermouth Holding</t>
-  </si>
-  <si>
     <t>Water Thieves</t>
   </si>
   <si>
@@ -182,9 +158,6 @@
     <t>Strength and Intelligence</t>
   </si>
   <si>
-    <t>Silk Shards Holding</t>
-  </si>
-  <si>
     <t>The Collective</t>
   </si>
   <si>
@@ -200,9 +173,6 @@
     <t>Dexterity, Wisdom</t>
   </si>
   <si>
-    <t>Southbridge Holding</t>
-  </si>
-  <si>
     <t>Water Demons</t>
   </si>
   <si>
@@ -218,9 +188,6 @@
     <t>Dexterity and Charisma</t>
   </si>
   <si>
-    <t>Stonewall Holding</t>
-  </si>
-  <si>
     <t>Stonewall Sentinels</t>
   </si>
   <si>
@@ -236,9 +203,6 @@
     <t>Strength and Charisma</t>
   </si>
   <si>
-    <t>Three Towers Holding</t>
-  </si>
-  <si>
     <t>Gamek’s Gang</t>
   </si>
   <si>
@@ -306,6 +270,42 @@
   </si>
   <si>
     <t>&lt;a href='http://2e.aonprd.com/Weapons.aspx?ID=45' target='_info'&gt;Trident&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/notch/brandywine-holding/||Brandywine</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/notch/abaddon-holding/||Abaddon</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/notch/fargic-hill-holding/||Fargic Hill</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/notch/forge-fires-holding/||Forge Fires</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/notch/iron-bolts-holding/||Iron Bolts</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/notch/north-canal-holding/||North Canal</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/notch/northbridge-holding/||Northbridge</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/notch/rivermouth-holding/||Rivermouth</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/notch/silk-shards-holding/||Silk Shards</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/notch/southbridge-holding/||Southbridge</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/notch/stonewall-holding/||Stonewall</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/notch/three-towers-holding/||Three Towers</t>
   </si>
 </sst>
 </file>
@@ -372,9 +372,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -382,6 +379,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -720,12 +718,12 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="79.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
@@ -735,329 +733,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://merisyl.atlassian.net/wiki/spaces/MP2/pages/1995243549/Abaddon+Holding" xr:uid="{183FBE75-D557-4CD1-B6FD-7579039D6882}"/>
-    <hyperlink ref="G2" r:id="rId2" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=89" display="http://2e.aonprd.com/Weapons.aspx?ID=89" xr:uid="{5F11D58E-1583-44DE-BD7C-A7320E7E2270}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://merisyl.atlassian.net/wiki/spaces/MP2/pages/2062581761/Brandywine+Holding" xr:uid="{46F54976-047B-42B2-891F-4E6B07BC951F}"/>
-    <hyperlink ref="G3" r:id="rId4" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=11" display="http://2e.aonprd.com/Weapons.aspx?ID=11" xr:uid="{D665CAC1-AE74-494C-99A7-6D6F7E7E5D81}"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://merisyl.atlassian.net/wiki/spaces/MP2/pages/2064252933/Fargic+Hill+Holding" xr:uid="{CF0C3ADF-715F-4016-9B91-7AF04BB8D7F3}"/>
-    <hyperlink ref="G4" r:id="rId6" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=12" display="http://2e.aonprd.com/Weapons.aspx?ID=12" xr:uid="{6D97782E-1771-4CB7-B20B-6BCD0ACE6905}"/>
-    <hyperlink ref="A5" r:id="rId7" display="https://merisyl.atlassian.net/wiki/spaces/MP2/pages/2033090561/Forge+Fires+Holding" xr:uid="{DD024C78-4CEF-4107-913A-C29F13A45E72}"/>
-    <hyperlink ref="G5" r:id="rId8" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=47" display="http://2e.aonprd.com/Weapons.aspx?ID=47" xr:uid="{9AF8F742-A042-404D-98AB-FD3F1C66F1E6}"/>
-    <hyperlink ref="A6" r:id="rId9" display="https://merisyl.atlassian.net/wiki/spaces/MP2/pages/2018738208/Iron+Bolts+Holding" xr:uid="{C1F3045E-7AD7-42E6-AFE9-6FB69043170E}"/>
-    <hyperlink ref="A7" r:id="rId10" display="https://merisyl.atlassian.net/wiki/spaces/MP2/pages/2040594433/North+Canal+Holding" xr:uid="{A8D408C5-9EAA-43CD-B24F-04C68EE92399}"/>
-    <hyperlink ref="G7" r:id="rId11" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=3" display="http://2e.aonprd.com/Weapons.aspx?ID=3" xr:uid="{EEFB84B4-5CD9-4341-8138-36B7E5380FCC}"/>
-    <hyperlink ref="A8" r:id="rId12" display="https://merisyl.atlassian.net/wiki/spaces/MP2/pages/1966604289/Northbridge+Holding" xr:uid="{18D933DE-7EB7-4D49-9114-9072EB19217E}"/>
-    <hyperlink ref="G8" r:id="rId13" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=23" display="Greatpick" xr:uid="{78F7F2BE-301B-4FC7-B84A-8186E48A7BDC}"/>
-    <hyperlink ref="A9" r:id="rId14" display="https://merisyl.atlassian.net/wiki/spaces/MP2/pages/1995341825/Rivermouth+Holding" xr:uid="{1B39232E-818E-4F4C-BCC8-2437CA9CE01E}"/>
-    <hyperlink ref="G9" r:id="rId15" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=138" display="Boarding Pike" xr:uid="{C2CFF900-7F95-4AEA-8B45-89D02DA37A83}"/>
-    <hyperlink ref="A10" r:id="rId16" display="https://merisyl.atlassian.net/wiki/spaces/MP2/pages/2013397033/Silk+Shards+Holding" xr:uid="{896C2B91-AB09-446F-9FA6-CDF540E808A5}"/>
-    <hyperlink ref="G10" r:id="rId17" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=48" display="Whip" xr:uid="{7B5B2DE4-9453-4D2E-8914-002003C223A8}"/>
-    <hyperlink ref="A11" r:id="rId18" display="https://merisyl.atlassian.net/wiki/spaces/MP2/pages/1966964737/Southbridge+Holding" xr:uid="{73F25779-E8C7-4774-8432-9AD7E06F454E}"/>
-    <hyperlink ref="G11" r:id="rId19" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=103" display="http://2e.aonprd.com/Weapons.aspx?ID=103" xr:uid="{C0FD97B7-E2E1-47FF-9FB0-F493A85B1AB5}"/>
-    <hyperlink ref="A12" r:id="rId20" display="https://merisyl.atlassian.net/wiki/spaces/MP2/pages/2062581790/Stonewall+Holding" xr:uid="{B44F8928-3365-4DFE-BEDC-049F9FB50FC4}"/>
-    <hyperlink ref="G12" r:id="rId21" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=77" display="Shortbow" xr:uid="{A8D59B1B-F47A-4909-BB4D-484AEB614F62}"/>
-    <hyperlink ref="A13" r:id="rId22" display="https://merisyl.atlassian.net/wiki/spaces/MP2/pages/2013396997/Three+Towers+Holding" xr:uid="{DD557EDC-0A95-445C-963C-70A6364A9BD9}"/>
-    <hyperlink ref="G13" r:id="rId23" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=45" display="Trident" xr:uid="{2FBCF24C-17FE-4585-B237-F4E752B09511}"/>
+    <hyperlink ref="G2" r:id="rId1" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=89" display="http://2e.aonprd.com/Weapons.aspx?ID=89" xr:uid="{5F11D58E-1583-44DE-BD7C-A7320E7E2270}"/>
+    <hyperlink ref="G3" r:id="rId2" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=11" display="http://2e.aonprd.com/Weapons.aspx?ID=11" xr:uid="{D665CAC1-AE74-494C-99A7-6D6F7E7E5D81}"/>
+    <hyperlink ref="G4" r:id="rId3" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=12" display="http://2e.aonprd.com/Weapons.aspx?ID=12" xr:uid="{6D97782E-1771-4CB7-B20B-6BCD0ACE6905}"/>
+    <hyperlink ref="G5" r:id="rId4" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=47" display="http://2e.aonprd.com/Weapons.aspx?ID=47" xr:uid="{9AF8F742-A042-404D-98AB-FD3F1C66F1E6}"/>
+    <hyperlink ref="G7" r:id="rId5" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=3" display="http://2e.aonprd.com/Weapons.aspx?ID=3" xr:uid="{EEFB84B4-5CD9-4341-8138-36B7E5380FCC}"/>
+    <hyperlink ref="G8" r:id="rId6" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=23" display="Greatpick" xr:uid="{78F7F2BE-301B-4FC7-B84A-8186E48A7BDC}"/>
+    <hyperlink ref="G9" r:id="rId7" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=138" display="Boarding Pike" xr:uid="{C2CFF900-7F95-4AEA-8B45-89D02DA37A83}"/>
+    <hyperlink ref="G10" r:id="rId8" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=48" display="Whip" xr:uid="{7B5B2DE4-9453-4D2E-8914-002003C223A8}"/>
+    <hyperlink ref="G11" r:id="rId9" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=103" display="http://2e.aonprd.com/Weapons.aspx?ID=103" xr:uid="{C0FD97B7-E2E1-47FF-9FB0-F493A85B1AB5}"/>
+    <hyperlink ref="G12" r:id="rId10" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=77" display="Shortbow" xr:uid="{A8D59B1B-F47A-4909-BB4D-484AEB614F62}"/>
+    <hyperlink ref="G13" r:id="rId11" tooltip="http://2e.aonprd.com/Weapons.aspx?ID=45" display="Trident" xr:uid="{2FBCF24C-17FE-4585-B237-F4E752B09511}"/>
+    <hyperlink ref="G6" r:id="rId12" xr:uid="{497B0442-B608-45C6-8E24-1A470E6DCD63}"/>
+    <hyperlink ref="A2" r:id="rId13" xr:uid="{9E6025CE-C6BD-4ECB-8C9B-CF7E46EFA373}"/>
+    <hyperlink ref="A3" r:id="rId14" xr:uid="{C6520FCF-7048-4F7F-817D-F9C9DA0A9C2A}"/>
+    <hyperlink ref="A4" r:id="rId15" xr:uid="{840AB2EF-7070-4A1E-A5C6-AF0265B27CD2}"/>
+    <hyperlink ref="A5" r:id="rId16" xr:uid="{F4B3FDC4-73B6-46BE-83FB-1C7D137E4EDF}"/>
+    <hyperlink ref="A6" r:id="rId17" xr:uid="{DA56D54A-7340-4142-A8D1-44C35467FC2B}"/>
+    <hyperlink ref="A7" r:id="rId18" xr:uid="{4C00279E-F443-47BF-8063-0DC554094C68}"/>
+    <hyperlink ref="A8" r:id="rId19" xr:uid="{60F7E9B1-C153-4C64-BBED-41F6F26BE735}"/>
+    <hyperlink ref="A10" r:id="rId20" xr:uid="{120566C9-1B97-473E-BF46-CAA29484ACEE}"/>
+    <hyperlink ref="A9" r:id="rId21" xr:uid="{50146249-8E81-4CF0-9502-02E9922BEEF7}"/>
+    <hyperlink ref="A11" r:id="rId22" xr:uid="{1DE98525-1B15-4FCC-B795-68A188A84B11}"/>
+    <hyperlink ref="A12" r:id="rId23" xr:uid="{5536C9CB-0364-46A2-86CA-B2B44A41CAF9}"/>
+    <hyperlink ref="A13" r:id="rId24" xr:uid="{C26EB043-B60B-4FB0-A815-E1416EFC7649}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
